--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C3">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C3">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Rams/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Rams/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>9</v>
